--- a/draw_graph/G500_log/G500_log2-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log2-speed-up.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BaiduSyncdisk\科研_项目_竞赛\GPU三角计数算法期刊改稿\draw_graph\G500_log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ED6A2C4-B25D-45AC-9991-0A34D90056F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960272A-1518-4FBB-A220-A81C1EB22DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,38 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>datasets-s17-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s18-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s19-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s20-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s21-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s22-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s23-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>datasets-s24-e32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>polak-baseline</t>
   </si>
   <si>
@@ -117,6 +85,30 @@
   </si>
   <si>
     <t>GroupTC-HASH-speed-up</t>
+  </si>
+  <si>
+    <t>s17-e32</t>
+  </si>
+  <si>
+    <t>s18-e32</t>
+  </si>
+  <si>
+    <t>s19-e32</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s21-e32</t>
+  </si>
+  <si>
+    <t>s22-e32</t>
+  </si>
+  <si>
+    <t>s23-e32</t>
+  </si>
+  <si>
+    <t>s24-e32</t>
   </si>
 </sst>
 </file>
@@ -504,7 +496,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -535,21 +527,21 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1.1795E-2</v>
@@ -582,7 +574,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>3.5737999999999999E-2</v>
@@ -611,7 +603,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>0.106129</v>
@@ -640,7 +632,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0.30154799999999998</v>
@@ -669,7 +661,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>0.82407600000000003</v>
@@ -698,7 +690,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2.2034500000000001</v>
@@ -727,7 +719,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>5.7751109999999999</v>
@@ -756,7 +748,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>15.000771</v>

--- a/draw_graph/G500_log/G500_log2-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log2-speed-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A960272A-1518-4FBB-A220-A81C1EB22DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB494878-5D32-4509-9C22-FB1517BEAB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,56 +59,52 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>GroupTC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GroupTC-HASH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>polak</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>polak-baseline</t>
+  </si>
+  <si>
+    <t>GroupTC-speed-up</t>
+  </si>
+  <si>
+    <t>TRUST-speed-up</t>
+  </si>
+  <si>
+    <t>GroupTC-HASH-speed-up</t>
+  </si>
+  <si>
+    <t>s17-e32</t>
+  </si>
+  <si>
+    <t>s18-e32</t>
+  </si>
+  <si>
+    <t>s19-e32</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s21-e32</t>
+  </si>
+  <si>
+    <t>s22-e32</t>
+  </si>
+  <si>
+    <t>s23-e32</t>
+  </si>
+  <si>
+    <t>s24-e32</t>
+  </si>
+  <si>
+    <t>Polak</t>
+  </si>
+  <si>
+    <t>GroupTC-BS</t>
   </si>
   <si>
     <t>TRUST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>polak-baseline</t>
-  </si>
-  <si>
-    <t>GroupTC-speed-up</t>
-  </si>
-  <si>
-    <t>TRUST-speed-up</t>
-  </si>
-  <si>
-    <t>GroupTC-HASH-speed-up</t>
-  </si>
-  <si>
-    <t>s17-e32</t>
-  </si>
-  <si>
-    <t>s18-e32</t>
-  </si>
-  <si>
-    <t>s19-e32</t>
-  </si>
-  <si>
-    <t>s20-e32</t>
-  </si>
-  <si>
-    <t>s21-e32</t>
-  </si>
-  <si>
-    <t>s22-e32</t>
-  </si>
-  <si>
-    <t>s23-e32</t>
-  </si>
-  <si>
-    <t>s24-e32</t>
+  </si>
+  <si>
+    <t>GroupTC-HS</t>
   </si>
 </sst>
 </file>
@@ -496,7 +492,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -515,45 +511,45 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1.1795E-2</v>
+        <v>1.1724999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>6.9709999999999998E-3</v>
+        <v>6.2440000000000004E-3</v>
       </c>
       <c r="D2">
-        <v>7.8980000000000005E-3</v>
+        <v>7.9150000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>5.0730000000000003E-3</v>
+        <v>5.0850000000000001E-3</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F9">B2:B9/B2:B9</f>
@@ -561,58 +557,58 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
-        <v>1.6920097546980348</v>
+        <v>1.8778026905829595</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
-        <v>1.4934160546973916</v>
+        <v>1.4813644977890081</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
-        <v>2.3250542085550956</v>
+        <v>2.3058013765978367</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>3.5737999999999999E-2</v>
+        <v>3.5777999999999997E-2</v>
       </c>
       <c r="C3">
-        <v>1.7982000000000001E-2</v>
+        <v>1.4947E-2</v>
       </c>
       <c r="D3">
-        <v>2.0434000000000001E-2</v>
+        <v>2.0455000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>1.3658999999999999E-2</v>
+        <v>1.3674E-2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.987431876320765</v>
+        <v>2.3936575901518697</v>
       </c>
       <c r="H3">
-        <v>1.7489478320446314</v>
+        <v>1.7491077976044975</v>
       </c>
       <c r="I3">
-        <v>2.6164433706713521</v>
+        <v>2.6164984642387008</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.106129</v>
+        <v>0.106285</v>
       </c>
       <c r="C4">
-        <v>4.8187000000000001E-2</v>
+        <v>3.9902E-2</v>
       </c>
       <c r="D4">
-        <v>4.4547000000000003E-2</v>
+        <v>4.4511000000000002E-2</v>
       </c>
       <c r="E4">
         <v>3.7867999999999999E-2</v>
@@ -621,158 +617,158 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.2024404922489467</v>
+        <v>2.6636509448147963</v>
       </c>
       <c r="H4">
-        <v>2.3824051002312161</v>
+        <v>2.3878367145200063</v>
       </c>
       <c r="I4">
-        <v>2.8026037815569875</v>
+        <v>2.8067233548114503</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0.30154799999999998</v>
+        <v>0.30071300000000001</v>
       </c>
       <c r="C5">
-        <v>0.12775400000000001</v>
+        <v>9.9743999999999999E-2</v>
       </c>
       <c r="D5">
-        <v>0.12094299999999999</v>
+        <v>0.12087199999999999</v>
       </c>
       <c r="E5">
-        <v>0.101674</v>
+        <v>0.10163800000000001</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.3603801055152869</v>
+        <v>3.0148480109079245</v>
       </c>
       <c r="H5">
-        <v>2.4933067643435338</v>
+        <v>2.4878631941227085</v>
       </c>
       <c r="I5">
-        <v>2.9658319727757338</v>
+        <v>2.9586670339833527</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.82407600000000003</v>
+        <v>0.82346600000000003</v>
       </c>
       <c r="C6">
-        <v>0.342503</v>
+        <v>0.24488599999999999</v>
       </c>
       <c r="D6">
-        <v>0.30196800000000001</v>
+        <v>0.30181200000000002</v>
       </c>
       <c r="E6">
-        <v>0.27572999999999998</v>
+        <v>0.27565699999999999</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4060402390635995</v>
+        <v>3.3626503760933661</v>
       </c>
       <c r="H6">
-        <v>2.7290176442536955</v>
+        <v>2.728407087856016</v>
       </c>
       <c r="I6">
-        <v>2.9887063431617893</v>
+        <v>2.9872849229295833</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2.2034500000000001</v>
+        <v>2.2011379999999998</v>
       </c>
       <c r="C7">
-        <v>0.82066300000000003</v>
+        <v>0.62895000000000001</v>
       </c>
       <c r="D7">
-        <v>0.786555</v>
+        <v>0.786582</v>
       </c>
       <c r="E7">
-        <v>0.71942399999999995</v>
+        <v>0.71928800000000004</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.6849632553191749</v>
+        <v>3.4997026790682879</v>
       </c>
       <c r="H7">
-        <v>2.8013934181335065</v>
+        <v>2.798357958865064</v>
       </c>
       <c r="I7">
-        <v>3.0627974601903749</v>
+        <v>3.060162271579673</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>5.7751109999999999</v>
+        <v>5.7736789999999996</v>
       </c>
       <c r="C8">
-        <v>2.0816720000000002</v>
+        <v>1.6513310000000001</v>
       </c>
       <c r="D8">
-        <v>2.0868989999999998</v>
+        <v>2.087529</v>
       </c>
       <c r="E8">
-        <v>1.8673729999999999</v>
+        <v>1.8680079999999999</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.7742655903523703</v>
+        <v>3.4963789815609343</v>
       </c>
       <c r="H8">
-        <v>2.7673169616737563</v>
+        <v>2.7657958284651372</v>
       </c>
       <c r="I8">
-        <v>3.0926392316907227</v>
+        <v>3.0908213455188629</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>15.000771</v>
+        <v>14.996174999999999</v>
       </c>
       <c r="C9">
-        <v>5.3649690000000003</v>
+        <v>4.2668910000000002</v>
       </c>
       <c r="D9">
-        <v>5.2184619999999997</v>
+        <v>5.221406</v>
       </c>
       <c r="E9">
-        <v>4.8624479999999997</v>
+        <v>4.865507</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.7960592130168878</v>
+        <v>3.5145437275055769</v>
       </c>
       <c r="H9">
-        <v>2.8745578678162267</v>
+        <v>2.8720568751022233</v>
       </c>
       <c r="I9">
-        <v>3.0850244568168135</v>
+        <v>3.0821402579422861</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log2-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log2-speed-up.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB494878-5D32-4509-9C22-FB1517BEAB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1004F0F5-DEDD-4522-9DA9-29D204BBE2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,30 +71,6 @@
     <t>GroupTC-HASH-speed-up</t>
   </si>
   <si>
-    <t>s17-e32</t>
-  </si>
-  <si>
-    <t>s18-e32</t>
-  </si>
-  <si>
-    <t>s19-e32</t>
-  </si>
-  <si>
-    <t>s20-e32</t>
-  </si>
-  <si>
-    <t>s21-e32</t>
-  </si>
-  <si>
-    <t>s22-e32</t>
-  </si>
-  <si>
-    <t>s23-e32</t>
-  </si>
-  <si>
-    <t>s24-e32</t>
-  </si>
-  <si>
     <t>Polak</t>
   </si>
   <si>
@@ -105,6 +81,30 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
+  </si>
+  <si>
+    <t>s17-e64</t>
+  </si>
+  <si>
+    <t>s18-e64</t>
+  </si>
+  <si>
+    <t>s19-e64</t>
+  </si>
+  <si>
+    <t>s20-e64</t>
+  </si>
+  <si>
+    <t>s21-e64</t>
+  </si>
+  <si>
+    <t>s22-e64</t>
+  </si>
+  <si>
+    <t>s23-e64</t>
+  </si>
+  <si>
+    <t>s24-e64</t>
   </si>
 </sst>
 </file>
@@ -492,7 +492,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -511,16 +511,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
@@ -537,19 +537,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>1.1724999999999999E-2</v>
+        <v>3.8592000000000001E-2</v>
       </c>
       <c r="C2">
-        <v>6.2440000000000004E-3</v>
+        <v>1.5658999999999999E-2</v>
       </c>
       <c r="D2">
-        <v>7.9150000000000002E-3</v>
+        <v>1.874E-2</v>
       </c>
       <c r="E2">
-        <v>5.0850000000000001E-3</v>
+        <v>1.4827E-2</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F9">B2:B9/B2:B9</f>
@@ -557,218 +557,218 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
-        <v>1.8778026905829595</v>
+        <v>2.4645251931796412</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
-        <v>1.4813644977890081</v>
+        <v>2.0593383137673427</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
-        <v>2.3058013765978367</v>
+        <v>2.602819181223444</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>3.5777999999999997E-2</v>
+        <v>0.11989900000000001</v>
       </c>
       <c r="C3">
-        <v>1.4947E-2</v>
+        <v>4.4372000000000002E-2</v>
       </c>
       <c r="D3">
-        <v>2.0455000000000001E-2</v>
+        <v>5.1892000000000001E-2</v>
       </c>
       <c r="E3">
-        <v>1.3674E-2</v>
+        <v>4.1417000000000002E-2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.3936575901518697</v>
+        <v>2.7021319751194448</v>
       </c>
       <c r="H3">
-        <v>1.7491077976044975</v>
+        <v>2.3105488321899332</v>
       </c>
       <c r="I3">
-        <v>2.6164984642387008</v>
+        <v>2.8949223748702222</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.106285</v>
+        <v>0.35062500000000002</v>
       </c>
       <c r="C4">
-        <v>3.9902E-2</v>
+        <v>0.115481</v>
       </c>
       <c r="D4">
-        <v>4.4511000000000002E-2</v>
+        <v>0.139656</v>
       </c>
       <c r="E4">
-        <v>3.7867999999999999E-2</v>
+        <v>0.11698799999999999</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.6636509448147963</v>
+        <v>3.0362137494479615</v>
       </c>
       <c r="H4">
-        <v>2.3878367145200063</v>
+        <v>2.5106332703213612</v>
       </c>
       <c r="I4">
-        <v>2.8067233548114503</v>
+        <v>2.9971022668991694</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5">
-        <v>0.30071300000000001</v>
+        <v>0.98988399999999999</v>
       </c>
       <c r="C5">
-        <v>9.9743999999999999E-2</v>
+        <v>0.30310799999999999</v>
       </c>
       <c r="D5">
-        <v>0.12087199999999999</v>
+        <v>0.35977100000000001</v>
       </c>
       <c r="E5">
-        <v>0.10163800000000001</v>
+        <v>0.32084200000000002</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.0148480109079245</v>
+        <v>3.265779854045423</v>
       </c>
       <c r="H5">
-        <v>2.4878631941227085</v>
+        <v>2.7514279916947166</v>
       </c>
       <c r="I5">
-        <v>2.9586670339833527</v>
+        <v>3.0852693849309003</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.82346600000000003</v>
+        <v>2.705012</v>
       </c>
       <c r="C6">
-        <v>0.24488599999999999</v>
+        <v>0.80903099999999994</v>
       </c>
       <c r="D6">
-        <v>0.30181200000000002</v>
+        <v>0.97973500000000002</v>
       </c>
       <c r="E6">
-        <v>0.27565699999999999</v>
+        <v>0.86271799999999998</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.3626503760933661</v>
+        <v>3.3435208292389293</v>
       </c>
       <c r="H6">
-        <v>2.728407087856016</v>
+        <v>2.7609629134408795</v>
       </c>
       <c r="I6">
-        <v>2.9872849229295833</v>
+        <v>3.1354532999195568</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>2.2011379999999998</v>
+        <v>7.289676</v>
       </c>
       <c r="C7">
-        <v>0.62895000000000001</v>
+        <v>2.172485</v>
       </c>
       <c r="D7">
-        <v>0.786582</v>
+        <v>2.5507029999999999</v>
       </c>
       <c r="E7">
-        <v>0.71928800000000004</v>
+        <v>2.3252999999999999</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.4997026790682879</v>
+        <v>3.3554551584936143</v>
       </c>
       <c r="H7">
-        <v>2.798357958865064</v>
+        <v>2.8579085844177077</v>
       </c>
       <c r="I7">
-        <v>3.060162271579673</v>
+        <v>3.1349400077409366</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>5.7736789999999996</v>
+        <v>19.378239000000001</v>
       </c>
       <c r="C8">
-        <v>1.6513310000000001</v>
+        <v>5.7897679999999996</v>
       </c>
       <c r="D8">
-        <v>2.087529</v>
+        <v>6.8211940000000002</v>
       </c>
       <c r="E8">
-        <v>1.8680079999999999</v>
+        <v>6.1781069999999998</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.4963789815609343</v>
+        <v>3.3469802244235005</v>
       </c>
       <c r="H8">
-        <v>2.7657958284651372</v>
+        <v>2.8408866541546831</v>
       </c>
       <c r="I8">
-        <v>3.0908213455188629</v>
+        <v>3.1365981521524313</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>14.996174999999999</v>
+        <v>51.061228</v>
       </c>
       <c r="C9">
-        <v>4.2668910000000002</v>
+        <v>15.735542000000001</v>
       </c>
       <c r="D9">
-        <v>5.221406</v>
+        <v>18.339001</v>
       </c>
       <c r="E9">
-        <v>4.865507</v>
+        <v>16.493601999999999</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.5145437275055769</v>
+        <v>3.244961501802734</v>
       </c>
       <c r="H9">
-        <v>2.8720568751022233</v>
+        <v>2.7842971381047419</v>
       </c>
       <c r="I9">
-        <v>3.0821402579422861</v>
+        <v>3.0958203065649337</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log2-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log2-speed-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1004F0F5-DEDD-4522-9DA9-29D204BBE2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23738B-6CC0-4199-A3D2-88045CFFE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>s24-e64</t>
+  </si>
+  <si>
+    <t>baseline</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -489,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,7 +510,7 @@
     <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,8 +538,11 @@
       <c r="I1" t="s">
         <v>4</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -567,8 +574,11 @@
         <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
         <v>2.602819181223444</v>
       </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -596,8 +606,11 @@
       <c r="I3">
         <v>2.8949223748702222</v>
       </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -625,8 +638,11 @@
       <c r="I4">
         <v>2.9971022668991694</v>
       </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -654,8 +670,11 @@
       <c r="I5">
         <v>3.0852693849309003</v>
       </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -683,8 +702,11 @@
       <c r="I6">
         <v>3.1354532999195568</v>
       </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -712,8 +734,11 @@
       <c r="I7">
         <v>3.1349400077409366</v>
       </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -741,8 +766,11 @@
       <c r="I8">
         <v>3.1365981521524313</v>
       </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -769,6 +797,9 @@
       </c>
       <c r="I9">
         <v>3.0958203065649337</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/draw_graph/G500_log/G500_log2-speed-up.xlsx
+++ b/draw_graph/G500_log/G500_log2-speed-up.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub_local\TC_Log_result_processing\draw_graph\G500_log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B23738B-6CC0-4199-A3D2-88045CFFE938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D24C5C0-9075-4ED0-9990-009B669F9C65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,15 +53,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>datasets</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>polak-baseline</t>
-  </si>
-  <si>
     <t>GroupTC-speed-up</t>
   </si>
   <si>
@@ -71,6 +68,30 @@
     <t>GroupTC-HASH-speed-up</t>
   </si>
   <si>
+    <t>s17-e32</t>
+  </si>
+  <si>
+    <t>s18-e32</t>
+  </si>
+  <si>
+    <t>s19-e32</t>
+  </si>
+  <si>
+    <t>s20-e32</t>
+  </si>
+  <si>
+    <t>s21-e32</t>
+  </si>
+  <si>
+    <t>s22-e32</t>
+  </si>
+  <si>
+    <t>s23-e32</t>
+  </si>
+  <si>
+    <t>s24-e32</t>
+  </si>
+  <si>
     <t>Polak</t>
   </si>
   <si>
@@ -81,30 +102,6 @@
   </si>
   <si>
     <t>GroupTC-HS</t>
-  </si>
-  <si>
-    <t>s17-e64</t>
-  </si>
-  <si>
-    <t>s18-e64</t>
-  </si>
-  <si>
-    <t>s19-e64</t>
-  </si>
-  <si>
-    <t>s20-e64</t>
-  </si>
-  <si>
-    <t>s21-e64</t>
-  </si>
-  <si>
-    <t>s22-e64</t>
-  </si>
-  <si>
-    <t>s23-e64</t>
-  </si>
-  <si>
-    <t>s24-e64</t>
   </si>
   <si>
     <t>baseline</t>
@@ -493,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -510,53 +507,50 @@
     <col min="9" max="9" width="23.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2">
-        <v>3.8592000000000001E-2</v>
+        <v>1.1724999999999999E-2</v>
       </c>
       <c r="C2">
-        <v>1.5658999999999999E-2</v>
+        <v>6.2440000000000004E-3</v>
       </c>
       <c r="D2">
-        <v>1.874E-2</v>
+        <v>7.9150000000000002E-3</v>
       </c>
       <c r="E2">
-        <v>1.4827E-2</v>
+        <v>5.0850000000000001E-3</v>
       </c>
       <c r="F2" cm="1">
         <f t="array" ref="F2:F9">B2:B9/B2:B9</f>
@@ -564,242 +558,218 @@
       </c>
       <c r="G2" cm="1">
         <f t="array" ref="G2:G9">B2:B9/C2:C9</f>
-        <v>2.4645251931796412</v>
+        <v>1.8778026905829595</v>
       </c>
       <c r="H2" cm="1">
         <f t="array" ref="H2:H9">B2:B9/D2:D9</f>
-        <v>2.0593383137673427</v>
+        <v>1.4813644977890081</v>
       </c>
       <c r="I2" cm="1">
         <f t="array" ref="I2:I9">B2:B9/E2:E9</f>
-        <v>2.602819181223444</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+        <v>2.3058013765978367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>3.5777999999999997E-2</v>
+      </c>
+      <c r="C3">
+        <v>1.4947E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.0455000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>1.3674E-2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>2.3936575901518697</v>
+      </c>
+      <c r="H3">
+        <v>1.7491077976044975</v>
+      </c>
+      <c r="I3">
+        <v>2.6164984642387008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>0.106285</v>
+      </c>
+      <c r="C4">
+        <v>3.9902E-2</v>
+      </c>
+      <c r="D4">
+        <v>4.4511000000000002E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.7867999999999999E-2</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>2.6636509448147963</v>
+      </c>
+      <c r="H4">
+        <v>2.3878367145200063</v>
+      </c>
+      <c r="I4">
+        <v>2.8067233548114503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.30071300000000001</v>
+      </c>
+      <c r="C5">
+        <v>9.9743999999999999E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.12087199999999999</v>
+      </c>
+      <c r="E5">
+        <v>0.10163800000000001</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>3.0148480109079245</v>
+      </c>
+      <c r="H5">
+        <v>2.4878631941227085</v>
+      </c>
+      <c r="I5">
+        <v>2.9586670339833527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.82346600000000003</v>
+      </c>
+      <c r="C6">
+        <v>0.24488599999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.30181200000000002</v>
+      </c>
+      <c r="E6">
+        <v>0.27565699999999999</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.3626503760933661</v>
+      </c>
+      <c r="H6">
+        <v>2.728407087856016</v>
+      </c>
+      <c r="I6">
+        <v>2.9872849229295833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>2.2011379999999998</v>
+      </c>
+      <c r="C7">
+        <v>0.62895000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.786582</v>
+      </c>
+      <c r="E7">
+        <v>0.71928800000000004</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.4997026790682879</v>
+      </c>
+      <c r="H7">
+        <v>2.798357958865064</v>
+      </c>
+      <c r="I7">
+        <v>3.060162271579673</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B3">
-        <v>0.11989900000000001</v>
-      </c>
-      <c r="C3">
-        <v>4.4372000000000002E-2</v>
-      </c>
-      <c r="D3">
-        <v>5.1892000000000001E-2</v>
-      </c>
-      <c r="E3">
-        <v>4.1417000000000002E-2</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>2.7021319751194448</v>
-      </c>
-      <c r="H3">
-        <v>2.3105488321899332</v>
-      </c>
-      <c r="I3">
-        <v>2.8949223748702222</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="B8">
+        <v>5.7736789999999996</v>
+      </c>
+      <c r="C8">
+        <v>1.6513310000000001</v>
+      </c>
+      <c r="D8">
+        <v>2.087529</v>
+      </c>
+      <c r="E8">
+        <v>1.8680079999999999</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.4963789815609343</v>
+      </c>
+      <c r="H8">
+        <v>2.7657958284651372</v>
+      </c>
+      <c r="I8">
+        <v>3.0908213455188629</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
-        <v>0.35062500000000002</v>
-      </c>
-      <c r="C4">
-        <v>0.115481</v>
-      </c>
-      <c r="D4">
-        <v>0.139656</v>
-      </c>
-      <c r="E4">
-        <v>0.11698799999999999</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>3.0362137494479615</v>
-      </c>
-      <c r="H4">
-        <v>2.5106332703213612</v>
-      </c>
-      <c r="I4">
-        <v>2.9971022668991694</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>0.98988399999999999</v>
-      </c>
-      <c r="C5">
-        <v>0.30310799999999999</v>
-      </c>
-      <c r="D5">
-        <v>0.35977100000000001</v>
-      </c>
-      <c r="E5">
-        <v>0.32084200000000002</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>3.265779854045423</v>
-      </c>
-      <c r="H5">
-        <v>2.7514279916947166</v>
-      </c>
-      <c r="I5">
-        <v>3.0852693849309003</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>2.705012</v>
-      </c>
-      <c r="C6">
-        <v>0.80903099999999994</v>
-      </c>
-      <c r="D6">
-        <v>0.97973500000000002</v>
-      </c>
-      <c r="E6">
-        <v>0.86271799999999998</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>3.3435208292389293</v>
-      </c>
-      <c r="H6">
-        <v>2.7609629134408795</v>
-      </c>
-      <c r="I6">
-        <v>3.1354532999195568</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>7.289676</v>
-      </c>
-      <c r="C7">
-        <v>2.172485</v>
-      </c>
-      <c r="D7">
-        <v>2.5507029999999999</v>
-      </c>
-      <c r="E7">
-        <v>2.3252999999999999</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>3.3554551584936143</v>
-      </c>
-      <c r="H7">
-        <v>2.8579085844177077</v>
-      </c>
-      <c r="I7">
-        <v>3.1349400077409366</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>19.378239000000001</v>
-      </c>
-      <c r="C8">
-        <v>5.7897679999999996</v>
-      </c>
-      <c r="D8">
-        <v>6.8211940000000002</v>
-      </c>
-      <c r="E8">
-        <v>6.1781069999999998</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>3.3469802244235005</v>
-      </c>
-      <c r="H8">
-        <v>2.8408866541546831</v>
-      </c>
-      <c r="I8">
-        <v>3.1365981521524313</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
       <c r="B9">
-        <v>51.061228</v>
+        <v>14.996174999999999</v>
       </c>
       <c r="C9">
-        <v>15.735542000000001</v>
+        <v>4.2668910000000002</v>
       </c>
       <c r="D9">
-        <v>18.339001</v>
+        <v>5.221406</v>
       </c>
       <c r="E9">
-        <v>16.493601999999999</v>
+        <v>4.865507</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.244961501802734</v>
+        <v>3.5145437275055769</v>
       </c>
       <c r="H9">
-        <v>2.7842971381047419</v>
+        <v>2.8720568751022233</v>
       </c>
       <c r="I9">
-        <v>3.0958203065649337</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>3.0821402579422861</v>
       </c>
     </row>
   </sheetData>
